--- a/model_exports/labels/2.0_False_False_5_3.xlsx
+++ b/model_exports/labels/2.0_False_False_5_3.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-494463913853874176</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-494829977268146176</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-495010606047821824</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,20 +518,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-495017350790668289</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-495805012929708033</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,37 +557,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,24 +596,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,85 +635,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,24 +752,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-638852256234913792</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,11 +830,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -843,33 +843,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-848784048755531776</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-848852185962037248</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-848864915762929664</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,20 +882,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-848891572318072832</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-849117747430797312</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-849222321772658688</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-849255695249625088</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,85 +934,85 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-849369868306665472</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-849634891255951364</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-849637507117568000</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-849667565186146304</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-849686849312501763</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-849743357312024576</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-850026468906340353</t>
+          <t>t-894637864561987584</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-850319148420694016</t>
+          <t>t-894643508547526657</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-850426637086842884</t>
+          <t>t-894960674811596800</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-850856929295552513</t>
+          <t>t-894974152540553216</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,20 +1064,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-854007994534813696</t>
+          <t>t-894976401597763584</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-895262760954736640</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,11 +1155,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,20 +1168,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,59 +1207,59 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,37 +1285,37 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,37 +1350,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,33 +1415,33 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,20 +1454,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,11 +1480,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,11 +1493,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,20 +1506,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,24 +1532,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,11 +1558,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1571,20 +1571,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,11 +1649,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,24 +1701,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,20 +1727,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,33 +1753,33 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,20 +1805,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,33 +1844,33 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,59 +1883,59 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -1961,24 +1961,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,11 +1987,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,24 +2052,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,37 +2078,37 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,24 +2143,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,37 +2169,37 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-949552218650365952</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2208,76 +2208,76 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-657221044642684928</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2286,50 +2286,50 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2338,24 +2338,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,37 +2377,37 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2416,20 +2416,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,20 +2520,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-1021604631217164289</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-1021652512343031808</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-1021683870188503041</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,50 +2559,50 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-1021786238024527873</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,20 +2624,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,11 +2650,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2663,24 +2663,24 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2689,24 +2689,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,85 +2728,85 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,20 +2819,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,37 +2845,37 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2884,46 +2884,46 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,11 +2936,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-750893641632063488</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2962,20 +2962,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,24 +3014,24 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-1004794708802048002</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,46 +3053,46 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,11 +3235,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -3248,24 +3248,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,33 +3287,33 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,24 +3378,24 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -3417,20 +3417,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,20 +3469,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,33 +3495,33 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,11 +3534,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3547,11 +3547,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,11 +3573,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3599,20 +3599,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,11 +3625,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3638,72 +3638,72 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,98 +3716,98 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,20 +3833,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,33 +3859,33 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,37 +3950,37 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3989,37 +3989,37 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,11 +4054,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -4067,46 +4067,46 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,33 +4132,33 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-571264964683436033</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,124 +4171,124 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,24 +4301,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,24 +4340,24 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -4366,37 +4366,37 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -4405,11 +4405,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-1049725086469685248</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -4418,46 +4418,46 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-1028993321757077505</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,59 +4470,59 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-1049725086469685248</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,33 +4548,33 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,24 +4587,24 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -4613,33 +4613,33 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,46 +4652,46 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,7 +4704,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,24 +4717,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4795,11 +4795,11 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,24 +4860,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4886,33 +4886,33 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B343" t="n">
         <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-911704954636824576</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,20 +4925,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,33 +4977,33 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-1042371802121596928</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,20 +5029,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,20 +5055,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,11 +5081,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,11 +5107,11 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -5120,33 +5120,33 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,11 +5159,11 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -5172,11 +5172,11 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -5185,11 +5185,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -5198,33 +5198,33 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,11 +5250,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -5263,20 +5263,20 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,72 +5289,72 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-999404160775872512</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,20 +5380,20 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,7 +5419,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-544508576757477376</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,11 +5432,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-544546124984762370</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -5445,37 +5445,37 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-544574124832468992</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-544578399596187648</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-544615900180393984</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -5484,20 +5484,20 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-544793457190268928</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B389" t="n">
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-544806009018265601</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,46 +5510,46 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-545012520793436160</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-545215683404267523</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-608655874496692224</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,20 +5562,20 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-609338660572536832</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-609783303168782337</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,33 +5588,33 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-610483675487203328</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,33 +5627,33 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B401" t="n">
         <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,37 +5666,37 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -5705,63 +5705,63 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -5770,33 +5770,33 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,20 +5822,20 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,59 +5861,59 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,7 +5926,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,24 +5939,24 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5965,20 +5965,20 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,37 +6004,37 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -6043,24 +6043,24 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -6069,24 +6069,24 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-1027292918111825921</t>
+          <t>t-984048304144166912</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6095,11 +6095,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-984354039067529216</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-540907891566575616</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,7 +6121,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-541174080833978368</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,59 +6134,59 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-544508576757477376</t>
         </is>
       </c>
       <c r="B439" t="n">
         <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-544546124984762370</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-544574124832468992</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-544578399596187648</t>
         </is>
       </c>
       <c r="B442" t="n">
         <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-544615900180393984</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-544793457190268928</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,11 +6212,11 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-544806009018265601</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-545012520793436160</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-545215683404267523</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,11 +6251,11 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-608655874496692224</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
         <v>0</v>
@@ -6264,37 +6264,37 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-609338660572536832</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-609783303168782337</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-610483675487203328</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -6303,11 +6303,11 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -6316,20 +6316,20 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,37 +6342,37 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B456" t="n">
         <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,33 +6407,33 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,7 +6459,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,7 +6472,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,37 +6485,37 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
         <v>0</v>
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,37 +6537,37 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -6576,59 +6576,59 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,7 +6654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,24 +6667,24 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,37 +6693,37 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -6732,11 +6732,11 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
         <v>0</v>
@@ -6745,20 +6745,20 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,63 +6771,63 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -6836,20 +6836,20 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,50 +6862,50 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-1027292918111825921</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -6914,24 +6914,24 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6940,33 +6940,33 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,33 +6979,33 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,11 +7018,11 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
         <v>1</v>
@@ -7031,46 +7031,46 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,11 +7083,11 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
         <v>0</v>
@@ -7096,33 +7096,33 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,46 +7135,46 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,7 +7187,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,20 +7200,20 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,37 +7226,37 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>0</v>
@@ -7265,11 +7265,11 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
         <v>1</v>
@@ -7278,46 +7278,46 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B527" t="n">
         <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,24 +7330,24 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -7356,20 +7356,20 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,33 +7382,33 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,33 +7421,33 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,20 +7460,20 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,20 +7486,20 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,59 +7512,59 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,24 +7577,24 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C551" t="n">
         <v>0</v>
@@ -7603,20 +7603,20 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,7 +7681,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-904822909704822785</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,24 +7694,24 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
         <v>0</v>
@@ -7720,37 +7720,37 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
         <v>0</v>
@@ -7759,20 +7759,20 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,7 +7785,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,7 +7798,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,20 +7824,20 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,20 +7850,20 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,11 +7889,11 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" t="n">
         <v>0</v>
@@ -7902,11 +7902,11 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
         <v>0</v>
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,37 +7928,37 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,59 +7980,59 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,59 +8045,59 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,7 +8110,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,20 +8149,20 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,102 +8175,102 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B596" t="n">
         <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
         <v>0</v>
@@ -8279,33 +8279,33 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,11 +8318,11 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,11 +8357,11 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C610" t="n">
         <v>1</v>
@@ -8370,20 +8370,20 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,11 +8409,11 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,20 +8435,20 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,24 +8474,24 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
         <v>1</v>
@@ -8500,85 +8500,85 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B622" t="n">
         <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,46 +8617,46 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B630" t="n">
         <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B632" t="n">
         <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,20 +8669,20 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,33 +8695,33 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,11 +8734,11 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,20 +8760,20 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-857545859868708865</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,20 +8786,20 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,20 +8812,20 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B645" t="n">
         <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,24 +8838,24 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,24 +8864,24 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-902843730587115520</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C650" t="n">
         <v>1</v>
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,59 +8955,59 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B657" t="n">
         <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,24 +9020,24 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,20 +9059,20 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-544711019629907968</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-544769671799394304</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,98 +9085,98 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-544813894037147648</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-545169541052243968</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B667" t="n">
         <v>1</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B668" t="n">
         <v>0</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B669" t="n">
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,11 +9228,11 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-961453081543065600</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,33 +9319,33 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B684" t="n">
         <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B685" t="n">
         <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-1039555557609201664</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,11 +9410,11 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,20 +9462,20 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B695" t="n">
         <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,46 +9514,46 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,33 +9566,33 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-638407777333850112</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,33 +9605,33 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B706" t="n">
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B707" t="n">
         <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,59 +9709,59 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B714" t="n">
         <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,11 +9774,11 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-1016913242839367680</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-792051379564969985</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-785264263749308416</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-785310124797669377</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-702431733740920832</t>
+          <t>t-785316828025421824</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-702439207684464640</t>
+          <t>t-785325402981924866</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-833912149630078976</t>
+          <t>t-785347096031268864</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9924,7 +9924,7 @@
         <v>1</v>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
